--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/4_fold/114.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/4_fold/114.xlsx
@@ -479,13 +479,13 @@
         <v>-0.04456938303561087</v>
       </c>
       <c r="E2" t="n">
-        <v>-1.347565030000987</v>
+        <v>-1.373047249331616</v>
       </c>
       <c r="F2" t="n">
-        <v>0.1430973492778855</v>
+        <v>0.1380280623062505</v>
       </c>
       <c r="G2" t="n">
-        <v>0.1041856076070778</v>
+        <v>0.1066647692654408</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>-0.04176139105329398</v>
       </c>
       <c r="E3" t="n">
-        <v>-1.317356635000086</v>
+        <v>-1.334300493095081</v>
       </c>
       <c r="F3" t="n">
-        <v>0.04870962034491088</v>
+        <v>0.04709772725254768</v>
       </c>
       <c r="G3" t="n">
-        <v>0.1358657310836147</v>
+        <v>0.1383025513473414</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>-0.05208957074029147</v>
       </c>
       <c r="E4" t="n">
-        <v>-1.326797305955902</v>
+        <v>-1.345036226707533</v>
       </c>
       <c r="F4" t="n">
-        <v>-0.03248803413479459</v>
+        <v>-0.03776756803152045</v>
       </c>
       <c r="G4" t="n">
-        <v>0.1171727353757107</v>
+        <v>0.1235546055810726</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>-0.08035495305790591</v>
       </c>
       <c r="E5" t="n">
-        <v>-1.362165510910074</v>
+        <v>-1.371263070564526</v>
       </c>
       <c r="F5" t="n">
-        <v>-0.0409490128216105</v>
+        <v>-0.04767253428024506</v>
       </c>
       <c r="G5" t="n">
-        <v>0.1249635519887995</v>
+        <v>0.1296269455911619</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>-0.1252667512672594</v>
       </c>
       <c r="E6" t="n">
-        <v>-1.391784046482248</v>
+        <v>-1.393829573857611</v>
       </c>
       <c r="F6" t="n">
-        <v>-0.02594847873561453</v>
+        <v>-0.03627685893070266</v>
       </c>
       <c r="G6" t="n">
-        <v>0.1253957262237085</v>
+        <v>0.132422937685252</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>-0.180588427276899</v>
       </c>
       <c r="E7" t="n">
-        <v>-1.259916883055647</v>
+        <v>-1.266650624850918</v>
       </c>
       <c r="F7" t="n">
-        <v>0.07901875866408456</v>
+        <v>0.06283558562445254</v>
       </c>
       <c r="G7" t="n">
-        <v>0.06752087994817856</v>
+        <v>0.07589863589381267</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>-0.2384999976753123</v>
       </c>
       <c r="E8" t="n">
-        <v>-0.9574036789079099</v>
+        <v>-0.9614611525525452</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1932310205754175</v>
+        <v>0.1791532368828758</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02184619552028173</v>
+        <v>0.03215705513827896</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>-0.2832744838320464</v>
       </c>
       <c r="E9" t="n">
-        <v>-0.5526082657996549</v>
+        <v>-0.556029158476654</v>
       </c>
       <c r="F9" t="n">
-        <v>0.2681942697069429</v>
+        <v>0.254119406110583</v>
       </c>
       <c r="G9" t="n">
-        <v>-0.04142206840306491</v>
+        <v>-0.03279902437815814</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>-0.28492949902285</v>
       </c>
       <c r="E10" t="n">
-        <v>-0.09060962853768807</v>
+        <v>-0.08990588535787009</v>
       </c>
       <c r="F10" t="n">
-        <v>0.2632155057169442</v>
+        <v>0.2518081499826745</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.03173902946415843</v>
+        <v>-0.02378614751297874</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>-0.213371321186783</v>
       </c>
       <c r="E11" t="n">
-        <v>0.5994339200433084</v>
+        <v>0.5987257967192178</v>
       </c>
       <c r="F11" t="n">
-        <v>0.08966104919871806</v>
+        <v>0.08282656408517444</v>
       </c>
       <c r="G11" t="n">
-        <v>-0.08040389238223627</v>
+        <v>-0.07127567171787508</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>-0.04507424418425316</v>
       </c>
       <c r="E12" t="n">
-        <v>1.387916831009551</v>
+        <v>1.374872761365373</v>
       </c>
       <c r="F12" t="n">
-        <v>-0.2458098205051009</v>
+        <v>-0.2493445969331909</v>
       </c>
       <c r="G12" t="n">
-        <v>0.01518399608146534</v>
+        <v>0.01636517498701047</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>0.2222868863207967</v>
       </c>
       <c r="E13" t="n">
-        <v>2.093899724598998</v>
+        <v>2.084581697682819</v>
       </c>
       <c r="F13" t="n">
-        <v>-0.7014338878021604</v>
+        <v>-0.693907339893526</v>
       </c>
       <c r="G13" t="n">
-        <v>0.1372294160005235</v>
+        <v>0.1308431656508888</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>0.5609323746188479</v>
       </c>
       <c r="E14" t="n">
-        <v>2.826972350467165</v>
+        <v>2.80768365513817</v>
       </c>
       <c r="F14" t="n">
-        <v>-1.264054659345282</v>
+        <v>-1.236916745479562</v>
       </c>
       <c r="G14" t="n">
-        <v>0.2468921680605849</v>
+        <v>0.2412023606503137</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>0.9321343191180439</v>
       </c>
       <c r="E15" t="n">
-        <v>3.529405867147613</v>
+        <v>3.502913294538074</v>
       </c>
       <c r="F15" t="n">
-        <v>-1.847682602820398</v>
+        <v>-1.817726066115179</v>
       </c>
       <c r="G15" t="n">
-        <v>0.412947817583904</v>
+        <v>0.3988335326890896</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>1.301302441860493</v>
       </c>
       <c r="E16" t="n">
-        <v>4.131693225224542</v>
+        <v>4.098795421640187</v>
       </c>
       <c r="F16" t="n">
-        <v>-2.516958427356309</v>
+        <v>-2.477852499289411</v>
       </c>
       <c r="G16" t="n">
-        <v>0.6121991205021232</v>
+        <v>0.5924767908901285</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>1.649765512608725</v>
       </c>
       <c r="E17" t="n">
-        <v>4.721594995346292</v>
+        <v>4.679539770135758</v>
       </c>
       <c r="F17" t="n">
-        <v>-3.165070854814499</v>
+        <v>-3.128855821967599</v>
       </c>
       <c r="G17" t="n">
-        <v>0.8288337559907014</v>
+        <v>0.8116825710667969</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>1.968103630235809</v>
       </c>
       <c r="E18" t="n">
-        <v>5.296745899605592</v>
+        <v>5.255760889645694</v>
       </c>
       <c r="F18" t="n">
-        <v>-3.859823058488676</v>
+        <v>-3.823271484556822</v>
       </c>
       <c r="G18" t="n">
-        <v>1.078385175688816</v>
+        <v>1.058513921171549</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>2.242032958287883</v>
       </c>
       <c r="E19" t="n">
-        <v>5.823611553450451</v>
+        <v>5.776038806504373</v>
       </c>
       <c r="F19" t="n">
-        <v>-4.474540535987557</v>
+        <v>-4.434628661374476</v>
       </c>
       <c r="G19" t="n">
-        <v>1.310048086177118</v>
+        <v>1.286306244170851</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>2.462891753627769</v>
       </c>
       <c r="E20" t="n">
-        <v>6.205044737056076</v>
+        <v>6.158508624254543</v>
       </c>
       <c r="F20" t="n">
-        <v>-5.028132370136499</v>
+        <v>-4.999500827073779</v>
       </c>
       <c r="G20" t="n">
-        <v>1.517501939270062</v>
+        <v>1.487721338359797</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>2.627319695266383</v>
       </c>
       <c r="E21" t="n">
-        <v>6.541523039942622</v>
+        <v>6.475140493441367</v>
       </c>
       <c r="F21" t="n">
-        <v>-5.447450881605023</v>
+        <v>-5.429047705443164</v>
       </c>
       <c r="G21" t="n">
-        <v>1.741553619060456</v>
+        <v>1.711396325742737</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>2.739720865890869</v>
       </c>
       <c r="E22" t="n">
-        <v>6.865114958378808</v>
+        <v>6.791261345796373</v>
       </c>
       <c r="F22" t="n">
-        <v>-5.648569586031514</v>
+        <v>-5.627665347489929</v>
       </c>
       <c r="G22" t="n">
-        <v>1.825554565874707</v>
+        <v>1.799018191822441</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>2.809310978744204</v>
       </c>
       <c r="E23" t="n">
-        <v>7.036288076460762</v>
+        <v>6.974976276979233</v>
       </c>
       <c r="F23" t="n">
-        <v>-5.84697333103296</v>
+        <v>-5.815659679627242</v>
       </c>
       <c r="G23" t="n">
-        <v>1.956088705394308</v>
+        <v>1.921706032901499</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>2.840932306634938</v>
       </c>
       <c r="E24" t="n">
-        <v>7.218326872435259</v>
+        <v>7.152128291993458</v>
       </c>
       <c r="F24" t="n">
-        <v>-5.803713566147427</v>
+        <v>-5.773421948405344</v>
       </c>
       <c r="G24" t="n">
-        <v>2.026597347800471</v>
+        <v>1.991189721547844</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>2.839672612634125</v>
       </c>
       <c r="E25" t="n">
-        <v>7.25478719336143</v>
+        <v>7.192340936513266</v>
       </c>
       <c r="F25" t="n">
-        <v>-5.752531580320622</v>
+        <v>-5.728291131891311</v>
       </c>
       <c r="G25" t="n">
-        <v>2.005896785967567</v>
+        <v>1.975085391105121</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>2.80790128577194</v>
       </c>
       <c r="E26" t="n">
-        <v>7.234813735477799</v>
+        <v>7.177803237672087</v>
       </c>
       <c r="F26" t="n">
-        <v>-5.610756530549115</v>
+        <v>-5.579379367051441</v>
       </c>
       <c r="G26" t="n">
-        <v>1.942593480890039</v>
+        <v>1.914681741536137</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>2.748667642889593</v>
       </c>
       <c r="E27" t="n">
-        <v>7.097541474018654</v>
+        <v>7.037564158492216</v>
       </c>
       <c r="F27" t="n">
-        <v>-5.514854731745868</v>
+        <v>-5.479282850083014</v>
       </c>
       <c r="G27" t="n">
-        <v>1.912031754251138</v>
+        <v>1.881929942760873</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>2.666915662681086</v>
       </c>
       <c r="E28" t="n">
-        <v>7.047187335459395</v>
+        <v>6.988967917834411</v>
       </c>
       <c r="F28" t="n">
-        <v>-5.322381702089692</v>
+        <v>-5.288477925370701</v>
       </c>
       <c r="G28" t="n">
-        <v>1.856676950980516</v>
+        <v>1.827557751855433</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>2.567944972629942</v>
       </c>
       <c r="E29" t="n">
-        <v>6.862840203453172</v>
+        <v>6.807091187198005</v>
       </c>
       <c r="F29" t="n">
-        <v>-5.189780864497409</v>
+        <v>-5.149028002183966</v>
       </c>
       <c r="G29" t="n">
-        <v>1.789914791975625</v>
+        <v>1.758193787152543</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>2.458341671603804</v>
       </c>
       <c r="E30" t="n">
-        <v>6.770617725839015</v>
+        <v>6.725779648967209</v>
       </c>
       <c r="F30" t="n">
-        <v>-5.111679241994477</v>
+        <v>-5.078567541364803</v>
       </c>
       <c r="G30" t="n">
-        <v>1.745903102323273</v>
+        <v>1.711289742232101</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>2.341208135326347</v>
       </c>
       <c r="E31" t="n">
-        <v>6.521621124415446</v>
+        <v>6.462808927265552</v>
       </c>
       <c r="F31" t="n">
-        <v>-4.914601220659574</v>
+        <v>-4.881842121643856</v>
       </c>
       <c r="G31" t="n">
-        <v>1.630642525882668</v>
+        <v>1.603449130189493</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>2.220173932404863</v>
       </c>
       <c r="E32" t="n">
-        <v>6.26157779913606</v>
+        <v>6.206551506685893</v>
       </c>
       <c r="F32" t="n">
-        <v>-4.722699799830989</v>
+        <v>-4.697677495648996</v>
       </c>
       <c r="G32" t="n">
-        <v>1.49535738987525</v>
+        <v>1.466398796040167</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>2.096881118113584</v>
       </c>
       <c r="E33" t="n">
-        <v>6.011848253570856</v>
+        <v>5.958065922094142</v>
       </c>
       <c r="F33" t="n">
-        <v>-4.5157029417905</v>
+        <v>-4.49370731730096</v>
       </c>
       <c r="G33" t="n">
-        <v>1.473142758172074</v>
+        <v>1.442435026724082</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>1.971451068235699</v>
       </c>
       <c r="E34" t="n">
-        <v>5.676501487954764</v>
+        <v>5.635728184968047</v>
       </c>
       <c r="F34" t="n">
-        <v>-4.39216097257826</v>
+        <v>-4.376577879303992</v>
       </c>
       <c r="G34" t="n">
-        <v>1.388449748562733</v>
+        <v>1.361539602199195</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>1.845114471719398</v>
       </c>
       <c r="E35" t="n">
-        <v>5.357707287545304</v>
+        <v>5.310968228059134</v>
       </c>
       <c r="F35" t="n">
-        <v>-4.277047860994837</v>
+        <v>-4.270218486049611</v>
       </c>
       <c r="G35" t="n">
-        <v>1.353871429625742</v>
+        <v>1.326970043550749</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>1.71623852249559</v>
       </c>
       <c r="E36" t="n">
-        <v>5.025194475273666</v>
+        <v>4.976079917543588</v>
       </c>
       <c r="F36" t="n">
-        <v>-4.195009218814768</v>
+        <v>-4.186486918108134</v>
       </c>
       <c r="G36" t="n">
-        <v>1.266602895184038</v>
+        <v>1.238751017801864</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>1.585572147039909</v>
       </c>
       <c r="E37" t="n">
-        <v>4.659396946673582</v>
+        <v>4.619426670136866</v>
       </c>
       <c r="F37" t="n">
-        <v>-4.111907661624517</v>
+        <v>-4.098785479407476</v>
       </c>
       <c r="G37" t="n">
-        <v>1.187774898755878</v>
+        <v>1.165506245273338</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>1.453364333425406</v>
       </c>
       <c r="E38" t="n">
-        <v>4.322051375221037</v>
+        <v>4.286118131655682</v>
       </c>
       <c r="F38" t="n">
-        <v>-4.03210581311972</v>
+        <v>-4.020275773463132</v>
       </c>
       <c r="G38" t="n">
-        <v>1.149292411223797</v>
+        <v>1.123068487462986</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>1.319239402327369</v>
       </c>
       <c r="E39" t="n">
-        <v>3.979858444106673</v>
+        <v>3.96005727189777</v>
       </c>
       <c r="F39" t="n">
-        <v>-3.892519375436486</v>
+        <v>-3.887745018179214</v>
       </c>
       <c r="G39" t="n">
-        <v>1.069283235890091</v>
+        <v>1.046169214562916</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>1.18705824554864</v>
       </c>
       <c r="E40" t="n">
-        <v>3.643507165404036</v>
+        <v>3.623901639639314</v>
       </c>
       <c r="F40" t="n">
-        <v>-3.784273600048651</v>
+        <v>-3.777932611189834</v>
       </c>
       <c r="G40" t="n">
-        <v>0.9792829514702973</v>
+        <v>0.960594335906666</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>1.058228731860624</v>
       </c>
       <c r="E41" t="n">
-        <v>3.409589940663372</v>
+        <v>3.388422163441378</v>
       </c>
       <c r="F41" t="n">
-        <v>-3.751538591826432</v>
+        <v>-3.743879179541525</v>
       </c>
       <c r="G41" t="n">
-        <v>0.9005542383123185</v>
+        <v>0.8799106183549604</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>0.9363212644525949</v>
       </c>
       <c r="E42" t="n">
-        <v>3.096378964153547</v>
+        <v>3.073222601431735</v>
       </c>
       <c r="F42" t="n">
-        <v>-3.694533934213084</v>
+        <v>-3.688089281939813</v>
       </c>
       <c r="G42" t="n">
-        <v>0.8420501113096069</v>
+        <v>0.8257939358654295</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>0.8236989343446732</v>
       </c>
       <c r="E43" t="n">
-        <v>2.912538468834869</v>
+        <v>2.887307377775876</v>
       </c>
       <c r="F43" t="n">
-        <v>-3.624634861884875</v>
+        <v>-3.62363034879833</v>
       </c>
       <c r="G43" t="n">
-        <v>0.8218912273184306</v>
+        <v>0.8002591548035273</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>0.7190502980990416</v>
       </c>
       <c r="E44" t="n">
-        <v>2.670072662521934</v>
+        <v>2.644707247038578</v>
       </c>
       <c r="F44" t="n">
-        <v>-3.572023488977071</v>
+        <v>-3.563783707576028</v>
       </c>
       <c r="G44" t="n">
-        <v>0.7380304451209077</v>
+        <v>0.7190191589291854</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>0.6246529582820899</v>
       </c>
       <c r="E45" t="n">
-        <v>2.476556428504805</v>
+        <v>2.458545275255354</v>
       </c>
       <c r="F45" t="n">
-        <v>-3.470896908080508</v>
+        <v>-3.464361002801555</v>
       </c>
       <c r="G45" t="n">
-        <v>0.6326354136305723</v>
+        <v>0.6116808034298507</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>0.5392865898201801</v>
       </c>
       <c r="E46" t="n">
-        <v>2.2541925643075</v>
+        <v>2.23073397163087</v>
       </c>
       <c r="F46" t="n">
-        <v>-3.387356606438939</v>
+        <v>-3.381905516891532</v>
       </c>
       <c r="G46" t="n">
-        <v>0.6398757921133885</v>
+        <v>0.6196658064390302</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>0.4618913268227656</v>
       </c>
       <c r="E47" t="n">
-        <v>2.004826570716931</v>
+        <v>1.993993013882388</v>
       </c>
       <c r="F47" t="n">
-        <v>-3.322988196279093</v>
+        <v>-3.315656564790595</v>
       </c>
       <c r="G47" t="n">
-        <v>0.5425066449787783</v>
+        <v>0.5249743875031466</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>0.3914457338734363</v>
       </c>
       <c r="E48" t="n">
-        <v>1.809095443745893</v>
+        <v>1.805487664913257</v>
       </c>
       <c r="F48" t="n">
-        <v>-3.235789744145753</v>
+        <v>-3.225313169069437</v>
       </c>
       <c r="G48" t="n">
-        <v>0.432026265987808</v>
+        <v>0.4167833639187211</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>0.3252826616380206</v>
       </c>
       <c r="E49" t="n">
-        <v>1.671389548003748</v>
+        <v>1.670361674147748</v>
       </c>
       <c r="F49" t="n">
-        <v>-3.169015904756134</v>
+        <v>-3.15901457533341</v>
       </c>
       <c r="G49" t="n">
-        <v>0.3722212361360968</v>
+        <v>0.3586150479769186</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>0.2638187597544867</v>
       </c>
       <c r="E50" t="n">
-        <v>1.535225463045603</v>
+        <v>1.53343836418233</v>
       </c>
       <c r="F50" t="n">
-        <v>-3.099246046683971</v>
+        <v>-3.087794889506974</v>
       </c>
       <c r="G50" t="n">
-        <v>0.2900876908301188</v>
+        <v>0.2804513734301214</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>0.2069419411367782</v>
       </c>
       <c r="E51" t="n">
-        <v>1.419874363623361</v>
+        <v>1.423998999480178</v>
       </c>
       <c r="F51" t="n">
-        <v>-3.011142364734268</v>
+        <v>-3.001705343898679</v>
       </c>
       <c r="G51" t="n">
-        <v>0.2495625960188569</v>
+        <v>0.2394196419313142</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>0.1549150604788355</v>
       </c>
       <c r="E52" t="n">
-        <v>1.252437508606042</v>
+        <v>1.257065861054223</v>
       </c>
       <c r="F52" t="n">
-        <v>-2.895244477301981</v>
+        <v>-2.888168354229391</v>
       </c>
       <c r="G52" t="n">
-        <v>0.2332158975930431</v>
+        <v>0.2255696257409543</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>0.109189680050392</v>
       </c>
       <c r="E53" t="n">
-        <v>1.081389954659906</v>
+        <v>1.088390885255814</v>
       </c>
       <c r="F53" t="n">
-        <v>-2.764640255474016</v>
+        <v>-2.755501814473018</v>
       </c>
       <c r="G53" t="n">
-        <v>0.1519992624881559</v>
+        <v>0.1469401958531572</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>0.0694129424798786</v>
       </c>
       <c r="E54" t="n">
-        <v>1.008767162618108</v>
+        <v>1.004895115081018</v>
       </c>
       <c r="F54" t="n">
-        <v>-2.717871995026028</v>
+        <v>-2.711185704793712</v>
       </c>
       <c r="G54" t="n">
-        <v>0.128010672354526</v>
+        <v>0.1261257502691628</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>0.03612103579130733</v>
       </c>
       <c r="E55" t="n">
-        <v>0.8714657001971445</v>
+        <v>0.8802727102815058</v>
       </c>
       <c r="F55" t="n">
-        <v>-2.74187956578484</v>
+        <v>-2.730229842067479</v>
       </c>
       <c r="G55" t="n">
-        <v>0.09679046402662524</v>
+        <v>0.09554942314935284</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>0.008688521540544395</v>
       </c>
       <c r="E56" t="n">
-        <v>0.7628760834839009</v>
+        <v>0.7738979865221707</v>
       </c>
       <c r="F56" t="n">
-        <v>-2.648225511017547</v>
+        <v>-2.63996382889514</v>
       </c>
       <c r="G56" t="n">
-        <v>0.0899530588168998</v>
+        <v>0.08778196730571856</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>-0.01390805742805385</v>
       </c>
       <c r="E57" t="n">
-        <v>0.6786488292155599</v>
+        <v>0.6878310716592847</v>
       </c>
       <c r="F57" t="n">
-        <v>-2.631851071678006</v>
+        <v>-2.623480615972826</v>
       </c>
       <c r="G57" t="n">
-        <v>0.05224731686918266</v>
+        <v>0.05063104363254673</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>-0.03248104141280327</v>
       </c>
       <c r="E58" t="n">
-        <v>0.6513473899636582</v>
+        <v>0.6505954651968402</v>
       </c>
       <c r="F58" t="n">
-        <v>-2.658033384068226</v>
+        <v>-2.650536767145455</v>
       </c>
       <c r="G58" t="n">
-        <v>0.007566925191194655</v>
+        <v>0.006511310421467666</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>-0.04810544695615697</v>
       </c>
       <c r="E59" t="n">
-        <v>0.6252285896653924</v>
+        <v>0.6239145463835746</v>
       </c>
       <c r="F59" t="n">
-        <v>-2.621423408212736</v>
+        <v>-2.615394869645374</v>
       </c>
       <c r="G59" t="n">
-        <v>-0.003370295057802408</v>
+        <v>0.002881630867468641</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>-0.06186669509364354</v>
       </c>
       <c r="E60" t="n">
-        <v>0.5787391984027686</v>
+        <v>0.5709498418377706</v>
       </c>
       <c r="F60" t="n">
-        <v>-2.616189135806828</v>
+        <v>-2.609791205072466</v>
       </c>
       <c r="G60" t="n">
-        <v>-0.04300184043742813</v>
+        <v>-0.03064983358834054</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>-0.07447043140571184</v>
       </c>
       <c r="E61" t="n">
-        <v>0.4457492579942588</v>
+        <v>0.4364239308376249</v>
       </c>
       <c r="F61" t="n">
-        <v>-2.643438013327457</v>
+        <v>-2.630204137431461</v>
       </c>
       <c r="G61" t="n">
-        <v>-0.07157936172078409</v>
+        <v>-0.06009024329342354</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>-0.08641908572448753</v>
       </c>
       <c r="E62" t="n">
-        <v>0.4105080772239956</v>
+        <v>0.3983298160977261</v>
       </c>
       <c r="F62" t="n">
-        <v>-2.66605780837586</v>
+        <v>-2.655048315746363</v>
       </c>
       <c r="G62" t="n">
-        <v>-0.1024783594686849</v>
+        <v>-0.08737854211250712</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>-0.09761667800250977</v>
       </c>
       <c r="E63" t="n">
-        <v>0.3436889763435589</v>
+        <v>0.3313311293021077</v>
       </c>
       <c r="F63" t="n">
-        <v>-2.746240729432384</v>
+        <v>-2.731681129869842</v>
       </c>
       <c r="G63" t="n">
-        <v>-0.166954083163213</v>
+        <v>-0.1498978013652176</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>-0.1083004897746398</v>
       </c>
       <c r="E64" t="n">
-        <v>0.311192685984204</v>
+        <v>0.305676624296751</v>
       </c>
       <c r="F64" t="n">
-        <v>-2.757526901175108</v>
+        <v>-2.74441858941493</v>
       </c>
       <c r="G64" t="n">
-        <v>-0.1725300068223934</v>
+        <v>-0.1580988914918518</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>-0.1182056830296144</v>
       </c>
       <c r="E65" t="n">
-        <v>0.2535485273070377</v>
+        <v>0.2510679056005838</v>
       </c>
       <c r="F65" t="n">
-        <v>-2.757710137210517</v>
+        <v>-2.750206220047292</v>
       </c>
       <c r="G65" t="n">
-        <v>-0.2136508012547459</v>
+        <v>-0.1974617880227503</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>-0.127159871158247</v>
       </c>
       <c r="E66" t="n">
-        <v>0.2092725689502314</v>
+        <v>0.2060473227174141</v>
       </c>
       <c r="F66" t="n">
-        <v>-2.855206308529036</v>
+        <v>-2.84236591559354</v>
       </c>
       <c r="G66" t="n">
-        <v>-0.2222490244621073</v>
+        <v>-0.2086515965914746</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>-0.1350731574253974</v>
       </c>
       <c r="E67" t="n">
-        <v>0.1901517791516911</v>
+        <v>0.1952561072775079</v>
       </c>
       <c r="F67" t="n">
-        <v>-2.852305192972401</v>
+        <v>-2.837449933671451</v>
       </c>
       <c r="G67" t="n">
-        <v>-0.2262933576739244</v>
+        <v>-0.2155357233401091</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>-0.1421155059310603</v>
       </c>
       <c r="E68" t="n">
-        <v>0.1747468117445134</v>
+        <v>0.1788378664952396</v>
       </c>
       <c r="F68" t="n">
-        <v>-2.948281454228284</v>
+        <v>-2.934163519213243</v>
       </c>
       <c r="G68" t="n">
-        <v>-0.2925693206645429</v>
+        <v>-0.2779440189379105</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>-0.1485892105565817</v>
       </c>
       <c r="E69" t="n">
-        <v>0.1245576586195269</v>
+        <v>0.1234626225513454</v>
       </c>
       <c r="F69" t="n">
-        <v>-2.954176398395328</v>
+        <v>-2.941348415868605</v>
       </c>
       <c r="G69" t="n">
-        <v>-0.2621886399889147</v>
+        <v>-0.2510338725743723</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>-0.1550435255972455</v>
       </c>
       <c r="E70" t="n">
-        <v>0.04733425504327489</v>
+        <v>0.05504768910754554</v>
       </c>
       <c r="F70" t="n">
-        <v>-3.057335366234437</v>
+        <v>-3.037780942152897</v>
       </c>
       <c r="G70" t="n">
-        <v>-0.3174456200374454</v>
+        <v>-0.3039036739942672</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>-0.1609192245212837</v>
       </c>
       <c r="E71" t="n">
-        <v>0.01003002632055763</v>
+        <v>0.02049711108428209</v>
       </c>
       <c r="F71" t="n">
-        <v>-3.147237097408095</v>
+        <v>-3.123994591848919</v>
       </c>
       <c r="G71" t="n">
-        <v>-0.3819987262807916</v>
+        <v>-0.3671471171000684</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>-0.1660244056437057</v>
       </c>
       <c r="E72" t="n">
-        <v>0.004464322998013671</v>
+        <v>0.01948237766110055</v>
       </c>
       <c r="F72" t="n">
-        <v>-3.253589920446066</v>
+        <v>-3.229448755286936</v>
       </c>
       <c r="G72" t="n">
-        <v>-0.4094140492837843</v>
+        <v>-0.3939930213476066</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>-0.1699446659738848</v>
       </c>
       <c r="E73" t="n">
-        <v>-0.02714279807397784</v>
+        <v>-0.008477543279801037</v>
       </c>
       <c r="F73" t="n">
-        <v>-3.202471446711216</v>
+        <v>-3.181550417616585</v>
       </c>
       <c r="G73" t="n">
-        <v>-0.436604524880777</v>
+        <v>-0.4169040959901459</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>-0.1730562181318561</v>
       </c>
       <c r="E74" t="n">
-        <v>-0.05164532513560763</v>
+        <v>-0.02317292731479709</v>
       </c>
       <c r="F74" t="n">
-        <v>-3.264172349008972</v>
+        <v>-3.240716676428524</v>
       </c>
       <c r="G74" t="n">
-        <v>-0.4875426826763997</v>
+        <v>-0.4691110355767683</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>-0.1756171588694371</v>
       </c>
       <c r="E75" t="n">
-        <v>-0.01339206515379972</v>
+        <v>0.01423642487046559</v>
       </c>
       <c r="F75" t="n">
-        <v>-3.264428587448927</v>
+        <v>-3.238585006215797</v>
       </c>
       <c r="G75" t="n">
-        <v>-0.5418316508406579</v>
+        <v>-0.5234146042219355</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>-0.1775226805356114</v>
       </c>
       <c r="E76" t="n">
-        <v>-0.04375084510806429</v>
+        <v>-0.0173006138931623</v>
       </c>
       <c r="F76" t="n">
-        <v>-3.204465142379352</v>
+        <v>-3.186615324443947</v>
       </c>
       <c r="G76" t="n">
-        <v>-0.552142510458655</v>
+        <v>-0.5293438595191157</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>-0.1791491253029042</v>
       </c>
       <c r="E77" t="n">
-        <v>-0.01004271483325516</v>
+        <v>0.02034088593855486</v>
       </c>
       <c r="F77" t="n">
-        <v>-3.222579229019211</v>
+        <v>-3.208564227394578</v>
       </c>
       <c r="G77" t="n">
-        <v>-0.553662420521291</v>
+        <v>-0.5342131199022963</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>-0.1799463306260921</v>
       </c>
       <c r="E78" t="n">
-        <v>0.07367936279563145</v>
+        <v>0.09675688292053435</v>
       </c>
       <c r="F78" t="n">
-        <v>-3.161876999615636</v>
+        <v>-3.149729399499276</v>
       </c>
       <c r="G78" t="n">
-        <v>-0.5716312323761044</v>
+        <v>-0.5500225206306556</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>-0.1805961335232945</v>
       </c>
       <c r="E79" t="n">
-        <v>0.1325090805226156</v>
+        <v>0.1535045720698827</v>
       </c>
       <c r="F79" t="n">
-        <v>-3.077535131572159</v>
+        <v>-3.068852225575525</v>
       </c>
       <c r="G79" t="n">
-        <v>-0.5473885938746563</v>
+        <v>-0.527355274019298</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>-0.180786288005346</v>
       </c>
       <c r="E80" t="n">
-        <v>0.2329005272054069</v>
+        <v>0.2537208129817649</v>
       </c>
       <c r="F80" t="n">
-        <v>-3.030955217327898</v>
+        <v>-3.021886128611219</v>
       </c>
       <c r="G80" t="n">
-        <v>-0.6032427335923686</v>
+        <v>-0.5818749297819198</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>-0.1807423825471359</v>
       </c>
       <c r="E81" t="n">
-        <v>0.3207852019414742</v>
+        <v>0.3400519965491054</v>
       </c>
       <c r="F81" t="n">
-        <v>-2.931321535604289</v>
+        <v>-2.926176326131927</v>
       </c>
       <c r="G81" t="n">
-        <v>-0.5411001667471126</v>
+        <v>-0.5273260730574799</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>-0.1799331287107661</v>
       </c>
       <c r="E82" t="n">
-        <v>0.4053424270783605</v>
+        <v>0.4319401231504443</v>
       </c>
       <c r="F82" t="n">
-        <v>-2.761431799794244</v>
+        <v>-2.752088222036473</v>
       </c>
       <c r="G82" t="n">
-        <v>-0.5442655510082026</v>
+        <v>-0.5292825374992975</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>-0.177706996705124</v>
       </c>
       <c r="E83" t="n">
-        <v>0.7033470027213714</v>
+        <v>0.7275268591549104</v>
       </c>
       <c r="F83" t="n">
-        <v>-2.666517723524497</v>
+        <v>-2.655558602554136</v>
       </c>
       <c r="G83" t="n">
-        <v>-0.5080797191231214</v>
+        <v>-0.4976724963311242</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>-0.1740379660548464</v>
       </c>
       <c r="E84" t="n">
-        <v>0.9609213866790296</v>
+        <v>0.9824439555871147</v>
       </c>
       <c r="F84" t="n">
-        <v>-2.476607808291911</v>
+        <v>-2.457487018493371</v>
       </c>
       <c r="G84" t="n">
-        <v>-0.5156369280416648</v>
+        <v>-0.5094171231743938</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>-0.1686597194664831</v>
       </c>
       <c r="E85" t="n">
-        <v>1.158419171840067</v>
+        <v>1.180899532295789</v>
       </c>
       <c r="F85" t="n">
-        <v>-2.254803142513425</v>
+        <v>-2.238668881084839</v>
       </c>
       <c r="G85" t="n">
-        <v>-0.5151974535663013</v>
+        <v>-0.5105267597234844</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>-0.1617230341046069</v>
       </c>
       <c r="E86" t="n">
-        <v>1.474049448036528</v>
+        <v>1.488160812835161</v>
       </c>
       <c r="F86" t="n">
-        <v>-2.148390457503726</v>
+        <v>-2.131462659937731</v>
       </c>
       <c r="G86" t="n">
-        <v>-0.4622342090685883</v>
+        <v>-0.4617348726214975</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>-0.1543645166630117</v>
       </c>
       <c r="E87" t="n">
-        <v>1.76905070475654</v>
+        <v>1.780208392267264</v>
       </c>
       <c r="F87" t="n">
-        <v>-1.969849936755047</v>
+        <v>-1.948512793954507</v>
       </c>
       <c r="G87" t="n">
-        <v>-0.4199555965001451</v>
+        <v>-0.4146614621225101</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>-0.1480728108215979</v>
       </c>
       <c r="E88" t="n">
-        <v>1.982848466804482</v>
+        <v>1.994650035523297</v>
       </c>
       <c r="F88" t="n">
-        <v>-1.735493967563065</v>
+        <v>-1.715175938329979</v>
       </c>
       <c r="G88" t="n">
-        <v>-0.4307015504492331</v>
+        <v>-0.4288253886524154</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>-0.1443886794388456</v>
       </c>
       <c r="E89" t="n">
-        <v>2.177886070932339</v>
+        <v>2.187355942849973</v>
       </c>
       <c r="F89" t="n">
-        <v>-1.59022064256574</v>
+        <v>-1.566545962771655</v>
       </c>
       <c r="G89" t="n">
-        <v>-0.353735115336981</v>
+        <v>-0.3578874921075254</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>-0.1466076275629674</v>
       </c>
       <c r="E90" t="n">
-        <v>2.293762787667308</v>
+        <v>2.298726951176397</v>
       </c>
       <c r="F90" t="n">
-        <v>-1.400504913729245</v>
+        <v>-1.374262009343252</v>
       </c>
       <c r="G90" t="n">
-        <v>-0.3133677057195374</v>
+        <v>-0.3149022162630824</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>-0.1571534116514983</v>
       </c>
       <c r="E91" t="n">
-        <v>2.333233727756934</v>
+        <v>2.334252841324388</v>
       </c>
       <c r="F91" t="n">
-        <v>-1.209190432233206</v>
+        <v>-1.183220556840213</v>
       </c>
       <c r="G91" t="n">
-        <v>-0.285356683095454</v>
+        <v>-0.2850310923711813</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>-0.1792919928082949</v>
       </c>
       <c r="E92" t="n">
-        <v>2.227307238761508</v>
+        <v>2.221523988273418</v>
       </c>
       <c r="F92" t="n">
-        <v>-1.059725309166882</v>
+        <v>-1.03606960999798</v>
       </c>
       <c r="G92" t="n">
-        <v>-0.2606030277621879</v>
+        <v>-0.2602482360760971</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>-0.2146129076042548</v>
       </c>
       <c r="E93" t="n">
-        <v>2.142847836846712</v>
+        <v>2.13578996437526</v>
       </c>
       <c r="F93" t="n">
-        <v>-0.8741750975337504</v>
+        <v>-0.8575451497783003</v>
       </c>
       <c r="G93" t="n">
-        <v>-0.2306297005039232</v>
+        <v>-0.2281811998554693</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>-0.2616045774865946</v>
       </c>
       <c r="E94" t="n">
-        <v>2.001832012082478</v>
+        <v>1.993594420753571</v>
       </c>
       <c r="F94" t="n">
-        <v>-0.8152621570655844</v>
+        <v>-0.7959340404381351</v>
       </c>
       <c r="G94" t="n">
-        <v>-0.1774795698505738</v>
+        <v>-0.1718072830173935</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>-0.3178266407339313</v>
       </c>
       <c r="E95" t="n">
-        <v>1.873165274071148</v>
+        <v>1.857323752284789</v>
       </c>
       <c r="F95" t="n">
-        <v>-0.6219663903101817</v>
+        <v>-0.6110145695802756</v>
       </c>
       <c r="G95" t="n">
-        <v>-0.1651450835785772</v>
+        <v>-0.1634908490915776</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>-0.3774129534900719</v>
       </c>
       <c r="E96" t="n">
-        <v>1.711164178096283</v>
+        <v>1.69546282092665</v>
       </c>
       <c r="F96" t="n">
-        <v>-0.487074007239218</v>
+        <v>-0.4778596437374932</v>
       </c>
       <c r="G96" t="n">
-        <v>-0.1320107522034951</v>
+        <v>-0.1300382272326775</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>-0.4336227051537867</v>
       </c>
       <c r="E97" t="n">
-        <v>1.568996375388321</v>
+        <v>1.554279090631961</v>
       </c>
       <c r="F97" t="n">
-        <v>-0.3271403393610791</v>
+        <v>-0.3226915728280803</v>
       </c>
       <c r="G97" t="n">
-        <v>-0.1177723632209535</v>
+        <v>-0.1123205436495004</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>-0.4791225805441707</v>
       </c>
       <c r="E98" t="n">
-        <v>1.428165976731631</v>
+        <v>1.421824987872815</v>
       </c>
       <c r="F98" t="n">
-        <v>-0.1848469725172991</v>
+        <v>-0.1780884099044828</v>
       </c>
       <c r="G98" t="n">
-        <v>-0.1427508659602195</v>
+        <v>-0.1393401936198568</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>-0.5095295500839381</v>
       </c>
       <c r="E99" t="n">
-        <v>1.294101440928213</v>
+        <v>1.295021271225485</v>
       </c>
       <c r="F99" t="n">
-        <v>-0.04158413374115578</v>
+        <v>-0.04099427431242867</v>
       </c>
       <c r="G99" t="n">
-        <v>-0.1837796773628449</v>
+        <v>-0.1811121695007547</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>-0.5253202333500693</v>
       </c>
       <c r="E100" t="n">
-        <v>1.248302652412589</v>
+        <v>1.250064930458316</v>
       </c>
       <c r="F100" t="n">
-        <v>0.0540679968385458</v>
+        <v>0.05469727756572745</v>
       </c>
       <c r="G100" t="n">
-        <v>-0.1980633278362047</v>
+        <v>-0.1943416652524784</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>-0.5300275475590603</v>
       </c>
       <c r="E101" t="n">
-        <v>1.165661010370975</v>
+        <v>1.175855066141699</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1004493445424424</v>
+        <v>0.1009545211818969</v>
       </c>
       <c r="G101" t="n">
-        <v>-0.1707385278148484</v>
+        <v>-0.1752617568004835</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>-0.5241395465998625</v>
       </c>
       <c r="E102" t="n">
-        <v>1.132828908950711</v>
+        <v>1.137943457413164</v>
       </c>
       <c r="F102" t="n">
-        <v>0.1299729769887072</v>
+        <v>0.136245343587251</v>
       </c>
       <c r="G102" t="n">
-        <v>-0.2391797421242846</v>
+        <v>-0.2394892723195572</v>
       </c>
     </row>
   </sheetData>
